--- a/NEW HR/NACARIO, GLENN BAY.xlsx
+++ b/NEW HR/NACARIO, GLENN BAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>6/3,4/2023</t>
+  </si>
+  <si>
+    <t>9/25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1263,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomLeft" activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1424,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.5</v>
+        <v>59.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1431,7 +1434,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.5</v>
+        <v>63.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3003,15 +3006,13 @@
       <c r="B85" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C85" s="14"/>
       <c r="D85" s="41"/>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G85" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H85" s="41">
         <v>2</v>
@@ -3051,13 +3052,15 @@
       <c r="B87" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="9"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="41">
         <v>1</v>
@@ -3073,13 +3076,15 @@
         <v>45108</v>
       </c>
       <c r="B88" s="16"/>
-      <c r="C88" s="42"/>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="43"/>
       <c r="E88" s="10"/>
       <c r="F88" s="16"/>
-      <c r="G88" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="43"/>
       <c r="I88" s="10"/>
@@ -3091,13 +3096,15 @@
         <v>45139</v>
       </c>
       <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="41"/>
       <c r="E89" s="9"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="41"/>
       <c r="I89" s="9"/>
@@ -3109,13 +3116,15 @@
         <v>45170</v>
       </c>
       <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="41"/>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="41"/>
       <c r="I90" s="9"/>
@@ -3126,7 +3135,9 @@
       <c r="A91" s="40">
         <v>45200</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C91" s="14"/>
       <c r="D91" s="41"/>
       <c r="E91" s="9"/>
@@ -3135,10 +3146,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="41"/>
+      <c r="H91" s="41">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
